--- a/ASP_AIS_Policlinic/wwwroot/Reports/report_visitings.xlsx
+++ b/ASP_AIS_Policlinic/wwwroot/Reports/report_visitings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Список посещений</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>Рудольфович</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Владимирович</t>
   </si>
   <si>
     <t>fff</t>
@@ -425,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:J1"/>
@@ -532,16 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>45033</v>
+        <v>44989</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -549,19 +549,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>45030</v>
+        <v>45004</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -569,10 +566,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>44989</v>
+        <v>45003</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
@@ -580,114 +577,16 @@
       <c r="E7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="0" t="s">
+    </row>
+    <row r="8">
+      <c r="G8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45004</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45003</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45031</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45040</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45044</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
